--- a/results/gurobi_cplex_comparison/seed_10_k_40.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_40.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.016</v>
+        <v>1.09</v>
       </c>
       <c r="F2">
-        <v>0.032</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.012</v>
+        <v>1.568</v>
       </c>
       <c r="F3">
-        <v>0.034</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06</v>
+        <v>2.152</v>
       </c>
       <c r="F4">
-        <v>0.057</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.022</v>
+        <v>2.836</v>
       </c>
       <c r="F5">
-        <v>0.061</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.043</v>
+        <v>3.536</v>
       </c>
       <c r="F6">
-        <v>0.074</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.106</v>
+        <v>4.474</v>
       </c>
       <c r="F7">
-        <v>0.07199999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.118</v>
+        <v>5.363</v>
       </c>
       <c r="F8">
-        <v>114.92</v>
+        <v>84.39700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.035</v>
+        <v>6.306</v>
       </c>
       <c r="F9">
-        <v>0.076</v>
+        <v>1.324</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.128</v>
+        <v>7.503</v>
       </c>
       <c r="F10">
-        <v>102.647</v>
+        <v>113.089</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.057</v>
+        <v>8.58</v>
       </c>
       <c r="F11">
-        <v>98.944</v>
+        <v>94.624</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.092</v>
+        <v>9.897</v>
       </c>
       <c r="F12">
-        <v>75.70999999999999</v>
+        <v>108.11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.073</v>
+        <v>11.295</v>
       </c>
       <c r="F13">
-        <v>89.693</v>
+        <v>119.866</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.188</v>
+        <v>12.784</v>
       </c>
       <c r="F14">
-        <v>119.842</v>
+        <v>104.772</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.111</v>
+        <v>14.203</v>
       </c>
       <c r="F15">
-        <v>21.406</v>
+        <v>93.95099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.121</v>
+        <v>15.895</v>
       </c>
       <c r="F16">
-        <v>50.21</v>
+        <v>109.722</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.646</v>
+        <v>18.178</v>
       </c>
       <c r="F17">
-        <v>64.851</v>
+        <v>106.975</v>
       </c>
     </row>
   </sheetData>
